--- a/public/files/locacoes.xlsx
+++ b/public/files/locacoes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\var\www\workstation\playtennis-api\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB0E2FB-286A-4C44-8FEE-E1C822D576E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010E84CB-4192-406C-80AD-424D3ED2EE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2760" windowWidth="21600" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -424,10 +424,10 @@
     </row>
     <row r="2" spans="1:3" ht="76.5">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -435,10 +435,10 @@
     </row>
     <row r="3" spans="1:3" ht="76.5">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -446,10 +446,10 @@
     </row>
     <row r="4" spans="1:3" ht="76.5">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -457,10 +457,10 @@
     </row>
     <row r="5" spans="1:3" ht="76.5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -468,10 +468,10 @@
     </row>
     <row r="6" spans="1:3" ht="76.5">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
